--- a/Statystyki_2018/Template/oglc.xlsx
+++ b/Statystyki_2018/Template/oglc.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19940728-0681-408C-8D4C-A579AE9401A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="I" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="nadzorcze 1" sheetId="2" r:id="rId2"/>
     <sheet name="referendarze" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">I!$A$1:$Z$7</definedName>
-  </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,22 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
-  <si>
-    <t>Sprawozdanie z ruchu spraw w miesiącu wrzesień 2017 roku</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wrzesień</t>
-  </si>
-  <si>
-    <t>2017 roku</t>
-  </si>
-  <si>
-    <t>Nazwisko i imię Sędziego</t>
-  </si>
-  <si>
-    <t>Dni rozpraw</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>C</t>
   </si>
@@ -65,9 +48,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>RAZEM</t>
   </si>
   <si>
     <t>zaw.</t>
@@ -149,14 +129,26 @@
     <t>Liczba odbytych posiedzeń</t>
   </si>
   <si>
-    <t>ZAŁATWIENIA Sprawy rodzinne i nieletnich</t>
+    <t>Imię i nazwisko sędziego</t>
+  </si>
+  <si>
+    <t>Liczba rozpraw</t>
+  </si>
+  <si>
+    <t>zaw</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>WSNc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,32 +164,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Czcionka tekstu podstawowego"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Czcionka tekstu podstawowego"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Czcionka tekstu podstawowego"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Czcionka tekstu podstawowego"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
@@ -218,8 +185,23 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +214,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,68 +251,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -368,6 +309,43 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -376,82 +354,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,496 +756,368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AA7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD20F4AF-950A-4387-A341-452F2EB5345C}">
+  <dimension ref="A3:R4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="1.59765625" customWidth="1"/>
-    <col min="2" max="2" width="1.5" customWidth="1"/>
-    <col min="3" max="3" width="18.09765625" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="26" width="5.5" customWidth="1"/>
-    <col min="27" max="1024" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="30.09765625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="22.8">
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="F4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:27" ht="22.8">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-    </row>
-    <row r="3" spans="2:27" ht="48" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="8" t="s">
+      <c r="H4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="J4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="2:27" ht="39.75" customHeight="1">
-      <c r="B4" s="12"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
+      <c r="L4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
+      <c r="N4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="s">
+      <c r="Q4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="2:27" ht="3" customHeight="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="2:27" ht="39.75" hidden="1" customHeight="1">
-      <c r="B6" s="12"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="2:27" ht="14.25" customHeight="1">
-      <c r="B7" s="12"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="U7" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:T3"/>
-    <mergeCell ref="E4:F6"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I4:J6"/>
-    <mergeCell ref="K4:L6"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P6"/>
-    <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="S4:T6"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:R3"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AK6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:AM6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1023" width="8.5" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37">
-      <c r="G2" s="24" t="s">
+    <row r="2" spans="1:39">
+      <c r="G2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+    </row>
+    <row r="3" spans="1:39" ht="9.15" customHeight="1"/>
+    <row r="4" spans="1:39" ht="31.35" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" ht="9.15" customHeight="1"/>
-    <row r="4" spans="1:37" ht="31.35" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="25" t="s">
+    <row r="5" spans="1:39" ht="13.8" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26" t="s">
+      <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="25" t="s">
+      <c r="J5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AD4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE4" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
     </row>
-    <row r="5" spans="1:37" ht="13.8" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="25" t="s">
+    <row r="6" spans="1:39" ht="73.95" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-    </row>
-    <row r="6" spans="1:37" ht="73.95" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="Y5:Z5"/>
+  <mergeCells count="28">
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="G2:AK2"/>
+    <mergeCell ref="G2:AM2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -1300,11 +1127,11 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:Z4"/>
-    <mergeCell ref="AA4:AB5"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AD4:AD6"/>
+    <mergeCell ref="M4:AB4"/>
+    <mergeCell ref="AC4:AD5"/>
     <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AF4:AF6"/>
+    <mergeCell ref="AG4:AG6"/>
     <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1313,74 +1140,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="5" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="24.296875" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" customWidth="1"/>
+    <col min="4" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="15.796875" customWidth="1"/>
     <col min="7" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="43.8" thickBot="1">
-      <c r="A5" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>25</v>
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Statystyki_2018/Template/oglc.xlsx
+++ b/Statystyki_2018/Template/oglc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19940728-0681-408C-8D4C-A579AE9401A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CA4FBA-3C73-480B-B868-2A676AF3AEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22992" yWindow="-1368" windowWidth="23136" windowHeight="13056" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -110,38 +110,38 @@
     <t>Na posiedzeniach</t>
   </si>
   <si>
-    <t>Referendarze - sesje w miesiącu styczniu 2017 roku
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko referendarza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przydział orzeczniczy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba odbytych sesji </t>
+  </si>
+  <si>
+    <t>Liczba odbytych posiedzeń</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko sędziego</t>
+  </si>
+  <si>
+    <t>Liczba rozpraw</t>
+  </si>
+  <si>
+    <t>zaw</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>WSNc</t>
+  </si>
+  <si>
+    <t>Referendarze - sesje 
 Sąd Rejonowy w Żorach I Wydział Cywilny</t>
-  </si>
-  <si>
-    <t>Lp.</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko referendarza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przydział orzeczniczy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liczba odbytych sesji </t>
-  </si>
-  <si>
-    <t>Liczba odbytych posiedzeń</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko sędziego</t>
-  </si>
-  <si>
-    <t>Liczba rozpraw</t>
-  </si>
-  <si>
-    <t>zaw</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>WSNc</t>
   </si>
 </sst>
 </file>
@@ -390,23 +390,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,10 +771,10 @@
   <sheetData>
     <row r="3" spans="1:18">
       <c r="A3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>9</v>
@@ -802,40 +802,40 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="N4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>6</v>
@@ -871,180 +871,180 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
     </row>
     <row r="3" spans="1:39" ht="9.15" customHeight="1"/>
     <row r="4" spans="1:39" ht="31.35" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="16" t="s">
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="16" t="s">
+      <c r="AF4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="16" t="s">
+      <c r="AG4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17" t="s">
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17" t="s">
+      <c r="R5" s="15"/>
+      <c r="S5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17" t="s">
+      <c r="T5" s="15"/>
+      <c r="U5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17" t="s">
+      <c r="V5" s="15"/>
+      <c r="W5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="19" t="s">
+      <c r="X5" s="15"/>
+      <c r="Y5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
     </row>
     <row r="6" spans="1:39" ht="73.95" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1099,24 +1099,12 @@
       <c r="AD6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="M5:N5"/>
     <mergeCell ref="G2:AM2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -1133,6 +1121,18 @@
     <mergeCell ref="AF4:AF6"/>
     <mergeCell ref="AG4:AG6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1158,54 +1158,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.8" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="43.8" thickBot="1">
       <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>

--- a/Statystyki_2018/Template/oglc.xlsx
+++ b/Statystyki_2018/Template/oglc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CA4FBA-3C73-480B-B868-2A676AF3AEBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B593D-C044-4678-9CD7-B6B27B81FEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22992" yWindow="-1368" windowWidth="23136" windowHeight="13056" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -390,6 +390,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,12 +404,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -759,14 +759,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD20F4AF-950A-4387-A341-452F2EB5345C}">
   <dimension ref="A3:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.09765625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:18">
@@ -861,190 +861,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AM6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1025" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:39">
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="19"/>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="15"/>
+      <c r="AK2" s="15"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
     </row>
     <row r="3" spans="1:39" ht="9.15" customHeight="1"/>
     <row r="4" spans="1:39" ht="31.35" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="18" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="18" t="s">
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AF4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AG4" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="15" t="s">
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15" t="s">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15" t="s">
+      <c r="R5" s="17"/>
+      <c r="S5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15" t="s">
+      <c r="T5" s="17"/>
+      <c r="U5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15" t="s">
+      <c r="V5" s="17"/>
+      <c r="W5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="16" t="s">
+      <c r="X5" s="17"/>
+      <c r="Y5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="16" t="s">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:39" ht="73.95" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1099,12 +1100,24 @@
       <c r="AD6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
     <mergeCell ref="G2:AM2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -1121,18 +1134,6 @@
     <mergeCell ref="AF4:AF6"/>
     <mergeCell ref="AG4:AG6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1143,14 +1144,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="24.296875" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
     <col min="3" max="3" width="9.796875" customWidth="1"/>
     <col min="4" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="15.796875" customWidth="1"/>
